--- a/backend/delay dataset.xlsx
+++ b/backend/delay dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANURAG\Desktop\Traffic delay prediction\backend\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a03e0fe0ba42dcfe/Desktop/Traffic-delay/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09E8C86D-01DC-4338-AB54-D481B2F0F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{09E8C86D-01DC-4338-AB54-D481B2F0F094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0A5DEC-4FC3-4DD6-89EE-F9AE967C81A4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EF6DF576-48DA-4568-B02E-51C1BFF5DF3E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EF6DF576-48DA-4568-B02E-51C1BFF5DF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -908,21 +908,21 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" customWidth="1"/>
+    <col min="11" max="11" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0.71572674073150111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44927.010416666664</v>
       </c>
@@ -982,7 +982,7 @@
         <v>29.537132999775103</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44927.020833333336</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>9.9599137128467987</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44927.03125</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>6.2690220801422996</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44927.041666666664</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>5.2805497103623011</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44927.052083333336</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>4.7306466170722992</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44927.0625</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>7.2945499651965982</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44927.072916666664</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>12.771813430470598</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44927.083333333336</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3.7622447037769984</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44927.09375</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>20.8691546174637</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44927.104166666664</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>25.2364697242574</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44927.114583333336</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>4.6016413893447989</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44927.125</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4.0900913472019997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44927.135416666664</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>38.667993247665805</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44927.145833333336</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1.9705790611342024</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44927.15625</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>23.531014714199792</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44927.166666666664</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>35.830779038648991</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44927.177083333336</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>4.6838942701230053</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44927.1875</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>-0.40080804906754075</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44927.197916666664</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>21.423313131030604</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44927.208333333336</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>18.751778959718003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44927.21875</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>12.252721310074197</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44927.229166666664</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>10.890834779207001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44927.239583333336</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>25.681533455201702</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>44927.25</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>10.288343119997201</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>44927.260416666664</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>4.3732974648595011</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>44927.270833333336</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>2.3478816050003033</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>44927.28125</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>9.1527741244242016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>44927.291666666664</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>-1.9217167961407</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>44927.302083333336</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>6.3094695556657037</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>44927.3125</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>34.664710275599496</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>44927.322916666664</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>14.449839727252602</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>44927.333333333336</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>5.4775521423080988</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>44927.34375</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>25.132746674225494</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>44927.354166666664</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1.2708299409672001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>44927.364583333336</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>10.1058632183369</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>44927.375</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>7.9081727328702982</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>44927.385416666664</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>10.7010255376685</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>44927.395833333336</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>6.3215125128867999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>44927.40625</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>15.139114537203</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>44927.416666666664</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>12.9976540843099</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>44927.427083333336</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>24.838083214122804</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>44927.4375</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>4.5906602602775983</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44927.447916666664</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>2.6708974465921997</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44927.458333333336</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>3.6451718366593973</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>44927.46875</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>29.601977013089495</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>44927.479166666664</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>36.946729610011296</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>44927.489583333336</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>25.168777976032995</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>44927.5</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>-3.0214899690109007</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>44927.510416666664</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>14.156912555719401</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>44927.520833333336</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>22.979684715872104</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>44927.53125</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>43.614923444996897</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44927.541666666664</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0.85654745857680226</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44927.552083333336</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>7.3663514281500007</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44927.5625</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>8.6384061478697021</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44927.572916666664</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>12.315914942086998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44927.583333333336</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>1.0011545726043032</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44927.59375</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>19.715789501856001</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44927.604166666664</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1.8912465405528014</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44927.614583333336</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>-2.2722872462340007</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>44927.625</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>12.158283554192195</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>44927.635416666664</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>20.351085482748907</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>44927.645833333336</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>4.3814635463717995</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>44927.65625</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>6.2140038372873008</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>44927.666666666664</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>27.010383392435294</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>44927.677083333336</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>11.157667543817396</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>44927.6875</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1.6306056793542005</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>44927.697916666664</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>21.579459806272396</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>44927.708333333336</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>10.937761471543396</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>44927.71875</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>8.181586192624799</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>44927.729166666664</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>44.519022219693504</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>44927.739583333336</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>8.0391972561556031</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>44927.75</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>43.289094550096699</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>44927.760416666664</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>10.354170023722101</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>44927.770833333336</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>-0.86795931813379923</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>44927.78125</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>27.508877823120798</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>44927.791666666664</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>2.3884963862447961</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>44927.802083333336</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>7.8091969845838989</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>44927.8125</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>14.039848531161599</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>44927.822916666664</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>-3.0001380138024984</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>44927.833333333336</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>8.4388155397033984</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>44927.84375</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>19.3897334856944</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>44927.854166666664</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>39.244022050039902</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>44927.864583333336</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>15.6079498848638</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>44927.875</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>26.128478036002903</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>44927.885416666664</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>3.4448956399371014</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>44927.895833333336</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0.20909466290200029</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>44927.90625</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>14.413802789359302</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>44927.916666666664</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>6.3228910582697964</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>44927.927083333336</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>11.009103927253001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>44927.9375</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>14.120859625782998</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>44927.947916666664</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>-2.2009335374330945</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>44927.958333333336</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>3.0642539369583996</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>44927.96875</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>6.0625085243490986</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>44927.979166666664</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>6.6337247244347992</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>44927.989583333336</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>14.3832999609733</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>44928</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>5.2605264980744995</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>44928.010416666664</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>-2.1244472013928011</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>44928.020833333336</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>6.8481108984442969</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>44928.03125</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>5.1438238570388997</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>44928.041666666664</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>14.519709131410302</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>44928.052083333336</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>16.396280793246898</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>44928.0625</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>13.0333244026519</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>44928.072916666664</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>16.045816218630499</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>44928.083333333336</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>17.376076086380692</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>44928.09375</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>24.891938941796802</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>44928.104166666664</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>5.5555827890471008</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>44928.114583333336</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>11.667611463706798</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>44928.125</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>20.339726278147701</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>44928.135416666664</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>12.676554790443006</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>44928.145833333336</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>19.363557900755303</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>44928.15625</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>4.4909940598580995</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>44928.166666666664</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>3.0004963282666992</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>44928.177083333336</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>13.812057708350395</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>44928.1875</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>11.191124983611104</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>44928.197916666664</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>38.563178938152397</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>44928.208333333336</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>-0.6480425737804012</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>44928.21875</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>14.325077518180603</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>44928.229166666664</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>24.815168674053496</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>44928.239583333336</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>8.0327259206135011</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>44928.25</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0.82543684332220124</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>44928.260416666664</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>7.8123982597259989</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>44928.270833333336</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>-0.64511708842849913</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>44928.28125</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>8.6114796661453976</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>44928.291666666664</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>10.280911835674502</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>44928.302083333336</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>24.9121208483581</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>44928.3125</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>8.7387358094417991</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>44928.322916666664</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>18.327053824043503</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>44928.333333333336</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>20.021885035625196</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>44928.34375</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>6.9061633654733967</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>44928.354166666664</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>15.368514128804698</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>44928.364583333336</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>37.408766673741503</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>44928.375</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>7.8180856977822017</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>44928.385416666664</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>4.5018347445331983</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>44928.395833333336</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>35.038230968065605</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>44928.40625</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>12.606560383345901</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>44928.416666666664</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>18.878125722360295</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>44928.427083333336</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>2.4103462364699979</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>44928.4375</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>6.3951567479896951</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>44928.447916666664</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>7.3348835118922011</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>44928.458333333336</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>21.128414852444099</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>44928.46875</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>11.844616354765499</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>44928.479166666664</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>19.891304704323897</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>44928.489583333336</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>4.5280762910376993</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>44928.5</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>18.583931618458898</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>44928.510416666664</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>15.070170646926407</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>44928.520833333336</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>3.6465935075692002</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>44928.53125</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>3.2816741086969969</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>44928.541666666664</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>5.1674322616160993</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>44928.552083333336</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>15.360939426698401</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>44928.5625</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>1.1409764023991968</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>44928.572916666664</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>19.556920092328099</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>44928.583333333336</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>29.627515335832001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44928.59375</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>7.4707046461383939</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>44928.604166666664</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>7.2500229084501981</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>44928.614583333336</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>7.987162774942199</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>44928.625</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>3.1566721895352021</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>44928.635416666664</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>5.3956433740577001</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>44928.645833333336</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>-0.41004568445799983</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>44928.65625</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>25.989261472511298</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>44928.666666666664</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>1.8385212047260993</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>44928.677083333336</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>-4.0301547362552981</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>44928.6875</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>6.5365342438451997</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>44928.697916666664</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>11.2355239371532</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>44928.708333333336</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>6.4680369177100516E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>44928.71875</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>3.6987240008150994</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>44928.729166666664</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>-3.8212591453592992</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>44928.739583333336</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>47.222131096921103</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>44928.75</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1.5099130962762999</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>44928.760416666664</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>4.9425447631874029</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>44928.770833333336</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>3.8521887366201</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>44928.78125</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>23.754938405849899</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>44928.791666666664</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>9.7782992730186038</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>44928.802083333336</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>-0.59790195267460433</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>44928.8125</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>15.083391555408998</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>44928.822916666664</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>3.9370933846563005</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>44928.833333333336</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>8.6647672823325976</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>44928.84375</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>31.594512616189306</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>44928.854166666664</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>3.9078299588559027</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>44928.864583333336</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>10.151107343805201</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>44928.875</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>16.125587278022202</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>44928.885416666664</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>25.750190220466799</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>44928.895833333336</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>20.985411550129307</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>44928.90625</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>3.3906621760673978</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>44928.916666666664</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>24.954371294161305</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>44928.927083333336</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>25.083378064935197</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>44928.9375</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>9.2415710580213997</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>44928.947916666664</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>12.925464688384299</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>44928.958333333336</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>26.598318716839493</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>44928.96875</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>4.4507947677182997</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>44928.979166666664</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>15.025715185983699</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>44928.989583333336</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>35.362617919108594</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>44929</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>-4.2977831575124057</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>44929.010416666664</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>1.610467146583801</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>44929.020833333336</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>4.1560364686585984</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>44929.03125</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>5.0877864611941988</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>44929.041666666664</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>15.731667213756701</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>44929.052083333336</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>4.4980887010933017</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>44929.0625</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>1.5537264148067003</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>44929.072916666664</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>5.4747869256196999</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>44929.083333333336</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>4.6254392355673986</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>44929.09375</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>20.376047520311701</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>44929.104166666664</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>24.102028888716994</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>44929.114583333336</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>31.577024197228397</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>44929.125</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>49.102734421043493</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>44929.135416666664</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>6.1816288153813019</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>44929.145833333336</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>16.693932967292298</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>44929.15625</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>8.1802163538365988</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>44929.166666666664</v>
       </c>
@@ -5122,7 +5122,7 @@
         <v>-5.6608305690986072E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>44929.177083333336</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>10.582072945109303</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>44929.1875</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>10.606458404317003</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>44929.197916666664</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>1.5755187614052986</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>44929.208333333336</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>13.591507814733102</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>44929.21875</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>4.3021404077658971</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>44929.229166666664</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>6.8626824905331958</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>44929.239583333336</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>6.4434780351623004</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>44929.25</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>13.159011046888601</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>44929.260416666664</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>19.266144636474301</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>44929.270833333336</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>21.9123911823729</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>44929.28125</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>6.0854063247936985</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>44929.291666666664</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>14.291255130346201</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>44929.302083333336</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>2.4491749301596997</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>44929.3125</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>-0.57599752388859571</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>44929.322916666664</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>4.4007274417140998</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>44929.333333333336</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>25.074982348876002</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>44929.34375</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>15.072714660173798</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>44929.354166666664</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>15.632073396117896</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>44929.364583333336</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>20.123165512513395</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>44929.375</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>1.2624636985992055</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>44929.385416666664</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>3.5214657819615987</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>44929.395833333336</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>31.050495633622603</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>44929.40625</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>18.961026092453199</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>44929.416666666664</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>24.410360730996693</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>44929.427083333336</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>-1.9385537869591012</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>44929.4375</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>-0.31223089689489569</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>44929.447916666664</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>11.948099007627498</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>44929.458333333336</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>13.522327346792295</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>44929.46875</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>43.53936152373339</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>44929.479166666664</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>9.0493143529190974</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>44929.489583333336</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>14.277179482606606</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>44929.5</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>8.7935943594908963</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>44929.510416666664</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>2.5513815851369017</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>44929.520833333336</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>12.3388928322222</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>44929.53125</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>34.903257070239796</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>44929.541666666664</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>1.1660286499569992</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>44929.552083333336</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>-0.53810331197680483</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>44929.5625</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>8.4152290990973029</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>44929.572916666664</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>7.8114794722351029</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>44929.583333333336</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>-0.56315630141019923</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>44929.59375</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>-0.79195615515330076</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>44929.604166666664</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>8.6834311464855993</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>44929.614583333336</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>-1.7664339252413974</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>44929.625</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>7.480987328650599</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>44929.635416666664</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>12.343100352066202</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>44929.645833333336</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>13.069592476461501</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>44929.65625</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>45.405710258857695</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>44929.666666666664</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>35.081960451215203</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>44929.677083333336</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>4.6282967308373006</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>44929.6875</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>14.217500500849702</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>44929.697916666664</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>25.911655558793406</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>44929.708333333336</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>7.0975521261228991</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>44929.71875</v>
       </c>
@@ -6182,7 +6182,7 @@
         <v>0.38490006104199992</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>44929.729166666664</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>-8.5986998143500415E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>44929.739583333336</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>11.101671382191899</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>44929.75</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>5.1515245752324006</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>44929.760416666664</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>42.228400259293302</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>44929.770833333336</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>53.889761752830601</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>44929.78125</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>2.5522248759759982</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>44929.791666666664</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>32.609558678520507</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>44929.802083333336</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>19.16353165081739</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>44929.8125</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>0.82620378917619774</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>44929.822916666664</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>56.135571846999802</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>44929.833333333336</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>1.1279996995176997</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>44929.84375</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>18.141452238756798</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>44929.854166666664</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>28.4118442873677</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>44929.864583333336</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>9.5214393977198029</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>44929.875</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>12.1994305050513</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>44929.885416666664</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>23.148528435580403</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>44929.895833333336</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>8.418569690851502</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>44929.90625</v>
       </c>
@@ -6542,7 +6542,7 @@
         <v>33.902340486029409</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>44929.916666666664</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>15.088144844521899</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>44929.927083333336</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>8.2778948715552971</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>44929.9375</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>4.6483423916668016</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>44929.947916666664</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>17.589409608789296</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>44929.958333333336</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>1.5571981048171999</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>44929.96875</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>21.046920509052399</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>44929.979166666664</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>32.252450442998395</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>44929.989583333336</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>3.0441171790673991</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>44930</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>-1.3745207480095978</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>44930.010416666664</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>5.4654058846458007</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>44930.020833333336</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>5.7932362138703013</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>44930.03125</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>4.5325019752036013</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>44930.041666666664</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>27.033014320899092</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>44930.052083333336</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>11.730579075552406</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>44930.0625</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>17.8881506356052</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>44930.072916666664</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>39.477516046607505</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>44930.083333333336</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>13.3162804844583</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>44930.09375</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>0.53358830491980136</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>44930.104166666664</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>-5.3397391983729037</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>44930.114583333336</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>10.805622704210506</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>44930.125</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>4.1466358228230007</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>44930.135416666664</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>16.4515754631664</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>44930.145833333336</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>19.9028669355434</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>44930.15625</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>8.2369617899900973</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>44930.166666666664</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>1.794020514727702</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>44930.177083333336</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>6.406658250865398</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>44930.1875</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>13.775573993862501</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>44930.197916666664</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>14.957843400856596</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>44930.208333333336</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>26.8234223393858</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>44930.21875</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>4.3815023188022977</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>44930.229166666664</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>18.0612828489352</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>44930.239583333336</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>27.926960296190195</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>44930.25</v>
       </c>
@@ -7202,7 +7202,7 @@
         <v>6.3230083414585962</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>44930.260416666664</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>15.243513091882001</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>44930.270833333336</v>
       </c>
@@ -7242,7 +7242,7 @@
         <v>4.3664928774581995</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>44930.28125</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>3.223512700416503</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>44930.291666666664</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>34.905642479700703</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>44930.302083333336</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>3.3344042390329012</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>44930.3125</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>20.960609976639105</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>44930.322916666664</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>1.4420262662253975</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>44930.333333333336</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>-0.26281840501400211</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>44930.34375</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>7.6849477405060007</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>44930.354166666664</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>17.4163090286775</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>44930.364583333336</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>-1.2042640272759009</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>44930.375</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>9.7284284995492989</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>44930.385416666664</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>9.6953594805087029</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>44930.395833333336</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>8.2397287065105989</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>44930.40625</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>27.678014943403596</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>44930.416666666664</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>8.2709349945479005</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>44930.427083333336</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>14.883479718601599</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>44930.4375</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>26.158222178093403</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>44930.447916666664</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>14.507068114265101</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>44930.458333333336</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>2.1646449884781997</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>44930.46875</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>18.630625984684599</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>44930.479166666664</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>6.3540770628796004</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>44930.489583333336</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>1.2436004954849977</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>44930.5</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>8.2234892607321992</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>44930.510416666664</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>0.81089835615359718</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>44930.520833333336</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>5.7559769545420956</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>44930.53125</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>5.0079508420454033</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>44930.541666666664</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>1.8847217817965998</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>44930.552083333336</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>11.745303321902803</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>44930.5625</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>5.3344244724790997</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>44930.572916666664</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>5.1132817339953007</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>44930.583333333336</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>-0.81136594259790229</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>44930.59375</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>10.760418828271099</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>44930.604166666664</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>2.9073818080129001</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>44930.614583333336</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>40.836538729639102</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>44930.625</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>15.424332296110098</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>44930.635416666664</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>22.229812406483191</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>44930.645833333336</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>10.5063463383607</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>44930.65625</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>11.090209237166501</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>44930.666666666664</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>13.6752099807122</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>44930.677083333336</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>8.3342621625774989</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>44930.6875</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>3.4167187749414012</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>44930.697916666664</v>
       </c>
@@ -8062,7 +8062,7 @@
         <v>9.8609052338073013</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>44930.708333333336</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>20.634656530588302</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>44930.71875</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>22.716916054736195</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>44930.729166666664</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>4.6487249906057997</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>44930.739583333336</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>5.2754034126154021</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>44930.75</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>19.127434374765702</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>44930.760416666664</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>16.756594971742601</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>44930.770833333336</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>0.39252596346549851</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>44930.78125</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>11.3812473216258</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>44930.791666666664</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>4.276668728274899</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>44930.802083333336</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>18.0990337945722</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>44930.8125</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>44.289969801142696</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>44930.822916666664</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>11.704202616945004</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>44930.833333333336</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>21.626463203642992</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>44930.84375</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>13.624538148016406</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>44930.854166666664</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>43.125123403742407</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>44930.864583333336</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>11.429298507103901</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>44930.875</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>23.431029045164902</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>44930.885416666664</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>3.8533286424262005</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>44930.895833333336</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>-5.3917883653307968</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>44930.90625</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>2.8078821123581985</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>44930.916666666664</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>1.8334155846706999</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>44930.927083333336</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>-1.995724407867101</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>44930.9375</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>11.696124608213303</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>44930.947916666664</v>
       </c>
@@ -8542,7 +8542,7 @@
         <v>10.481117408559196</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>44930.958333333336</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>4.712732572724903</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>44930.96875</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>8.2437596605156003</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>44930.979166666664</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>6.4015628423646049</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>44930.989583333336</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>23.213015218740303</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>44931</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>12.868487462456098</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>44931.010416666664</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>9.6201083065854007</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>44931.020833333336</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>13.670305016591499</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>44931.03125</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0.71433276887150043</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>44931.041666666664</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>-0.8251632325094036</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>44931.052083333336</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>9.8655540420554004</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>44931.0625</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>9.1356559584745014</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>44931.072916666664</v>
       </c>
@@ -8782,7 +8782,7 @@
         <v>24.421162275399794</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>44931.083333333336</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>1.0767015605870043</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>44931.09375</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>12.020275040042101</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>44931.104166666664</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>7.1904081974462031</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>44931.114583333336</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>15.480987777569496</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>44931.125</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>5.4603121661517005</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>44931.135416666664</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>-2.0051117565360954</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>44931.145833333336</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>20.2019811063067</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>44931.15625</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>10.510265624099301</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>44931.166666666664</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>13.624037130999803</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>44931.177083333336</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>8.4409703985680995</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>44931.1875</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>-4.1965766051994038</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>44931.197916666664</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>-2.5139519982793956</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>44931.208333333336</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>6.1864490563772989</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>44931.21875</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>8.4759503348055034</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>44931.229166666664</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>3.850453371620798</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>44931.239583333336</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>5.5931359177024973</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>44931.25</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>12.294634445782897</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>44931.260416666664</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>13.0778485871379</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>44931.270833333336</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>0.50882454135319932</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>44931.28125</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>16.964494407706397</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>44931.291666666664</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>6.5575900157582012</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>44931.302083333336</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>3.0692329486341983</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>44931.3125</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>5.5105271949050945</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>44931.322916666664</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>3.2103647296948026</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>44931.333333333336</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>14.125928114828799</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>44931.34375</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>22.386964291983599</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>44931.354166666664</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>4.6848478971825003</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>44931.364583333336</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>8.5357574417936988</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>44931.375</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>20.897132703890804</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>44931.385416666664</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>10.869726354014503</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>44931.395833333336</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>-0.41164846601109417</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>44931.40625</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>13.879833561870605</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>44931.416666666664</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>15.649530410537402</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>44931.427083333336</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>5.3449385275369004</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>44931.4375</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>3.5599516215884002</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>44931.447916666664</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>4.632717505321402</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>44931.458333333336</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>12.058557503161698</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>44931.46875</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>8.6178743234042017</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>44931.479166666664</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>17.921362344355401</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>44931.489583333336</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>8.3791225274826999</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>44931.5</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>9.640435793386299</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>44931.510416666664</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>6.0677659331640985</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>44931.520833333336</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>15.978550245537701</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>44931.53125</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>8.4603195904185036</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>44931.541666666664</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>9.239834315022101</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>44931.552083333336</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>0.34258694466729978</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>44931.5625</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>34.614748475101102</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>44931.572916666664</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>11.3147376866443</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>44931.583333333336</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>18.619742468860302</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>44931.59375</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>-2.2617323629259971</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>44931.604166666664</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>36.527319611910499</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>44931.614583333336</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>3.3773506996578035</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>44931.625</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>5.0935730322069013</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>44931.635416666664</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>22.702414733530802</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>44931.645833333336</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>4.5636174256711044</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>44931.65625</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>50.036423794596402</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>44931.666666666664</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>-0.6213858970535</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>44931.677083333336</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>13.4148736197853</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>44931.6875</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>21.776892349747406</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>44931.697916666664</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>51.222370494426002</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>44931.708333333336</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>9.2529761918183979</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>44931.71875</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>25.331521960241297</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>44931.729166666664</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>-0.68232204246839956</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>44931.739583333336</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>24.903254215491202</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>44931.75</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>12.162732365954298</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>44931.760416666664</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>2.457698089217498</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>44931.770833333336</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>4.8635952628025017</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>44931.78125</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>10.125964734682</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>44931.791666666664</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>0.2155103005699992</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>44931.802083333336</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>22.881184183157004</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>44931.8125</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>19.222956120940296</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>44931.822916666664</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>17.887877171897102</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>44931.833333333336</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>1.6259774612240001</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>44931.84375</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>12.809835345725901</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>44931.854166666664</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>22.901138726336203</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>44931.864583333336</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>5.7981211595172013</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>44931.875</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>15.123946500063404</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>44931.885416666664</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>16.377119818032007</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>44931.895833333336</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>17.970103255267798</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>44931.90625</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>6.1876298597395021</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>44931.916666666664</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>11.152753117687297</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>44931.927083333336</v>
       </c>
@@ -10422,7 +10422,7 @@
         <v>19.696907130563105</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>44931.9375</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>-0.22085927520689985</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>44931.947916666664</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>0.4026040894725007</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>44931.958333333336</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>7.3695235308774976</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>44931.96875</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>6.5126897195431006</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>44931.979166666664</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>7.090409550418002</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>44931.989583333336</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>1.6448863863589995</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>44932</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>45.515240017930402</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>44932.010416666664</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>26.082437367131003</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="1">
         <v>44932.020833333336</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>9.2263504431551979</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="1">
         <v>44932.03125</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>16.745391095687097</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="1">
         <v>44932.041666666664</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>9.3331020859999967</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="1">
         <v>44932.052083333336</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>-2.4524506232935011</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="1">
         <v>44932.0625</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>8.7043399660939045</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="1">
         <v>44932.072916666664</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>1.7342906889087004</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="1">
         <v>44932.083333333336</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>-2.6025497913416977</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="1">
         <v>44932.09375</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>0.5859027296571</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="1">
         <v>44932.104166666664</v>
       </c>
@@ -10762,7 +10762,7 @@
         <v>9.6719793085842021</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="1">
         <v>44932.114583333336</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>6.2802885683064034</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="1">
         <v>44932.125</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>14.967639220222196</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="1">
         <v>44932.135416666664</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>47.598563060006306</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="1">
         <v>44932.145833333336</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>-3.3791366905612961</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="1">
         <v>44932.15625</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>9.0265637329192998</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="1">
         <v>44932.166666666664</v>
       </c>
@@ -10882,7 +10882,7 @@
         <v>13.087773307928906</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="1">
         <v>44932.177083333336</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>17.456682294340304</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="1">
         <v>44932.1875</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>4.4934484684809988</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="1">
         <v>44932.197916666664</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v>5.1347640994869046</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="1">
         <v>44932.208333333336</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>11.259277366283094</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="1">
         <v>44932.21875</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>21.094346849887497</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="1">
         <v>44932.229166666664</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>3.5342628147578026</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="1">
         <v>44932.239583333336</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>49.849069539559999</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="1">
         <v>44932.25</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>48.246893593004096</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="1">
         <v>44932.260416666664</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>1.9649774182739996</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="1">
         <v>44932.270833333336</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>4.1940940053272016</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="1">
         <v>44932.28125</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>28.815601625095404</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="1">
         <v>44932.291666666664</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>8.0326739289569034</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="1">
         <v>44932.302083333336</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>23.240470242633798</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="1">
         <v>44932.3125</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>6.5693478123692941</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="1">
         <v>44932.322916666664</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>3.4077675844437003</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="1">
         <v>44932.333333333336</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>2.0734745600083997</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="1">
         <v>44932.34375</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>18.32845775912341</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="1">
         <v>44932.354166666664</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>10.774478573503899</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="1">
         <v>44932.364583333336</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>31.961310131107297</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="1">
         <v>44932.375</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>6.5180210221195996</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="1">
         <v>44932.385416666664</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>12.593270991967401</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="1">
         <v>44932.395833333336</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>49.091560341332304</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="1">
         <v>44932.40625</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>11.160308648050201</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="1">
         <v>44932.416666666664</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>5.8028313265280005</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="1">
         <v>44932.427083333336</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>6.1569081608617999</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="1">
         <v>44932.4375</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>20.5258752289344</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="1">
         <v>44932.447916666664</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>7.1050046098881978</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="1">
         <v>44932.458333333336</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>-0.35887075755510267</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="1">
         <v>44932.46875</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>15.204770012859306</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="1">
         <v>44932.479166666664</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>23.774102817960291</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="1">
         <v>44932.489583333336</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>26.210859417342203</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="1">
         <v>44932.5</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>17.934751551452699</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="1">
         <v>44932.510416666664</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>2.4619189881127994</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A532" s="1">
         <v>44932.520833333336</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>34.066832977827403</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A533" s="1">
         <v>44932.53125</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>2.3246220806269022</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A534" s="1">
         <v>44932.541666666664</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>-3.8212716383372012</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A535" s="1">
         <v>44932.552083333336</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>1.2675772510900991</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A536" s="1">
         <v>44932.5625</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>28.849583872618105</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A537" s="1">
         <v>44932.572916666664</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>19.047556140868998</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A538" s="1">
         <v>44932.583333333336</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>19.0929150019318</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A539" s="1">
         <v>44932.59375</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>10.443090720661296</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A540" s="1">
         <v>44932.604166666664</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>5.4318489895947994</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A541" s="1">
         <v>44932.614583333336</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>21.565256865940299</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A542" s="1">
         <v>44932.625</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>11.371687192580104</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A543" s="1">
         <v>44932.635416666664</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>27.900702576384198</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A544" s="1">
         <v>44932.645833333336</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>1.4910962755471999</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A545" s="1">
         <v>44932.65625</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>2.7497096080922994</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A546" s="1">
         <v>44932.666666666664</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>3.9696820821279992</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A547" s="1">
         <v>44932.677083333336</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>13.460559474032101</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A548" s="1">
         <v>44932.6875</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>0.43754493136309947</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A549" s="1">
         <v>44932.697916666664</v>
       </c>
@@ -11902,7 +11902,7 @@
         <v>6.2517080488984007</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A550" s="1">
         <v>44932.708333333336</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>5.0357946001625997</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A551" s="1">
         <v>44932.71875</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>4.6234361338804</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A552" s="1">
         <v>44932.729166666664</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>23.754649735819505</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A553" s="1">
         <v>44932.739583333336</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>4.5874122181406989</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A554" s="1">
         <v>44932.75</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>14.889347704366898</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A555" s="1">
         <v>44932.760416666664</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>3.2466952182531017</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A556" s="1">
         <v>44932.770833333336</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>13.040792214637602</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A557" s="1">
         <v>44932.78125</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>12.336698784090999</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A558" s="1">
         <v>44932.791666666664</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>2.7863191236400997</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A559" s="1">
         <v>44932.802083333336</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>-0.21573078082050046</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A560" s="1">
         <v>44932.8125</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>8.3830967866267052</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A561" s="1">
         <v>44932.822916666664</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>17.766190888423701</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A562" s="1">
         <v>44932.833333333336</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>-1.2592943474740004</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A563" s="1">
         <v>44932.84375</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>-0.91911991386560032</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A564" s="1">
         <v>44932.854166666664</v>
       </c>
@@ -12202,7 +12202,7 @@
         <v>5.8009570922150999</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A565" s="1">
         <v>44932.864583333336</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>3.5524880652819988</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A566" s="1">
         <v>44932.875</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>18.921099023142702</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A567" s="1">
         <v>44932.885416666664</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>6.7926122080431028</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A568" s="1">
         <v>44932.895833333336</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>13.510104454810403</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A569" s="1">
         <v>44932.90625</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>7.2789413568012975</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A570" s="1">
         <v>44932.916666666664</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>45.817868159274596</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A571" s="1">
         <v>44932.927083333336</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>16.153423954642996</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A572" s="1">
         <v>44932.9375</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>-4.2364599480649971</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A573" s="1">
         <v>44932.947916666664</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>21.318241862702692</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A574" s="1">
         <v>44932.958333333336</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>8.8513955508068989</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A575" s="1">
         <v>44932.96875</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>4.0380025256779035</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A576" s="1">
         <v>44932.979166666664</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>24.967869057166197</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A577" s="1">
         <v>44932.989583333336</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>9.9730491405849016</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A578" s="1">
         <v>44933</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>8.9237259483182001</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A579" s="1">
         <v>44933.010416666664</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>2.0152612159269019</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A580" s="1">
         <v>44933.020833333336</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>2.7540802848638002</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A581" s="1">
         <v>44933.03125</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>20.137987891289491</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A582" s="1">
         <v>44933.041666666664</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>2.6163524678922006</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A583" s="1">
         <v>44933.052083333336</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>-1.0814525104255015</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A584" s="1">
         <v>44933.0625</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>3.8224522796614977</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A585" s="1">
         <v>44933.072916666664</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>8.6169069806753029</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A586" s="1">
         <v>44933.083333333336</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>9.8957771478079977</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A587" s="1">
         <v>44933.09375</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>4.0656070556371979</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A588" s="1">
         <v>44933.104166666664</v>
       </c>
@@ -12682,7 +12682,7 @@
         <v>13.877817728827004</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A589" s="1">
         <v>44933.114583333336</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>29.236390350959201</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A590" s="1">
         <v>44933.125</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>4.3842179819801999</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A591" s="1">
         <v>44933.135416666664</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>18.793181691937399</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A592" s="1">
         <v>44933.145833333336</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>24.259193637220697</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A593" s="1">
         <v>44933.15625</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>5.4157230265807002</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A594" s="1">
         <v>44933.166666666664</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>10.6092959669176</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A595" s="1">
         <v>44933.177083333336</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>7.6554107356312002</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A596" s="1">
         <v>44933.1875</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>14.706349050175898</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A597" s="1">
         <v>44933.197916666664</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>-1.286647534515005</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A598" s="1">
         <v>44933.208333333336</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>7.7940950086021985</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A599" s="1">
         <v>44933.21875</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>33.491792452490706</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A600" s="1">
         <v>44933.229166666664</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>17.635205750453096</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A601" s="1">
         <v>44933.239583333336</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>32.261065940903002</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A602" s="1">
         <v>44933.25</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>-0.55798135503529878</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A603" s="1">
         <v>44933.260416666664</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>22.389866820824608</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A604" s="1">
         <v>44933.270833333336</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>10.547714164351596</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A605" s="1">
         <v>44933.28125</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>15.647452561448809</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A606" s="1">
         <v>44933.291666666664</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>7.0853178408635991</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A607" s="1">
         <v>44933.302083333336</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>4.9238551027304993</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A608" s="1">
         <v>44933.3125</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>-2.2465117713470946</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A609" s="1">
         <v>44933.322916666664</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>4.0399955198826998</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A610" s="1">
         <v>44933.333333333336</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>27.209272922454598</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A611" s="1">
         <v>44933.34375</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>21.076712845221998</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A612" s="1">
         <v>44933.354166666664</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>7.9346913015884972</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A613" s="1">
         <v>44933.364583333336</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>1.7078395113544005</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A614" s="1">
         <v>44933.375</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>8.431338152394801</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A615" s="1">
         <v>44933.385416666664</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>15.479184820333501</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A616" s="1">
         <v>44933.395833333336</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>1.7954659395003034</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A617" s="1">
         <v>44933.40625</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>42.261510438094504</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A618" s="1">
         <v>44933.416666666664</v>
       </c>
@@ -13282,7 +13282,7 @@
         <v>39.775941865796298</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A619" s="1">
         <v>44933.427083333336</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>2.8050108920281005</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A620" s="1">
         <v>44933.4375</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>21.351402754048891</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A621" s="1">
         <v>44933.447916666664</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>28.118264080137703</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A622" s="1">
         <v>44933.458333333336</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>17.689584247656697</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A623" s="1">
         <v>44933.46875</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>17.801789042621401</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A624" s="1">
         <v>44933.479166666664</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>10.535106250251498</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A625" s="1">
         <v>44933.489583333336</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>3.5356127095721988</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A626" s="1">
         <v>44933.5</v>
       </c>
@@ -13442,7 +13442,7 @@
         <v>5.9695540832822012</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A627" s="1">
         <v>44933.510416666664</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>18.817079048257</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A628" s="1">
         <v>44933.520833333336</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>-1.5567575131384999</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A629" s="1">
         <v>44933.53125</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>7.2123078406620991</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A630" s="1">
         <v>44933.541666666664</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>-4.5373520124575037</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A631" s="1">
         <v>44933.552083333336</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>13.404160184960809</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A632" s="1">
         <v>44933.5625</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>7.3209777848651001</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A633" s="1">
         <v>44933.572916666664</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>5.1299036628461998</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A634" s="1">
         <v>44933.583333333336</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>44.796572095443295</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A635" s="1">
         <v>44933.59375</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>16.087559142648995</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A636" s="1">
         <v>44933.604166666664</v>
       </c>
@@ -13642,7 +13642,7 @@
         <v>-1.9843436698148977</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A637" s="1">
         <v>44933.614583333336</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>7.6618277372360009</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A638" s="1">
         <v>44933.625</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>2.3204933016240012</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A639" s="1">
         <v>44933.635416666664</v>
       </c>
@@ -13702,7 +13702,7 @@
         <v>26.6674372472051</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A640" s="1">
         <v>44933.645833333336</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>1.1239307740802005</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A641" s="1">
         <v>44933.65625</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>10.865021019572708</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A642" s="1">
         <v>44933.666666666664</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>1.3049166990606</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A643" s="1">
         <v>44933.677083333336</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>15.189894537185396</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A644" s="1">
         <v>44933.6875</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>23.4585054625691</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A645" s="1">
         <v>44933.697916666664</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>-2.9458405117783002</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A646" s="1">
         <v>44933.708333333336</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>-2.6245033405173004</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A647" s="1">
         <v>44933.71875</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>7.4470256455464998</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A648" s="1">
         <v>44933.729166666664</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>10.2539151723752</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A649" s="1">
         <v>44933.739583333336</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>11.641484913520902</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A650" s="1">
         <v>44933.75</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>8.6543832407462986</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A651" s="1">
         <v>44933.760416666664</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>8.092211796020095</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A652" s="1">
         <v>44933.770833333336</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>20.701678575720607</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A653" s="1">
         <v>44933.78125</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>10.9019601605868</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A654" s="1">
         <v>44933.791666666664</v>
       </c>
@@ -14002,7 +14002,7 @@
         <v>25.362598475356307</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A655" s="1">
         <v>44933.802083333336</v>
       </c>
@@ -14022,7 +14022,7 @@
         <v>-0.62752048872459909</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A656" s="1">
         <v>44933.8125</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>6.9657079348420972</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A657" s="1">
         <v>44933.822916666664</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>0.77571894792350093</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A658" s="1">
         <v>44933.833333333336</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>20.580781101209602</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A659" s="1">
         <v>44933.84375</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>8.1924394433453998</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A660" s="1">
         <v>44933.854166666664</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>0.54699368235579726</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A661" s="1">
         <v>44933.864583333336</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>26.069353730932207</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A662" s="1">
         <v>44933.875</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>9.3410819876249001</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A663" s="1">
         <v>44933.885416666664</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>-1.0725055901164993</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A664" s="1">
         <v>44933.895833333336</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>38.025905549414993</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A665" s="1">
         <v>44933.90625</v>
       </c>
@@ -14222,7 +14222,7 @@
         <v>18.281570736708304</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A666" s="1">
         <v>44933.916666666664</v>
       </c>
@@ -14242,7 +14242,7 @@
         <v>24.159417484801409</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A667" s="1">
         <v>44933.927083333336</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>13.449503486889402</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A668" s="1">
         <v>44933.9375</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>32.598703803107405</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A669" s="1">
         <v>44933.947916666664</v>
       </c>
@@ -14302,7 +14302,7 @@
         <v>6.3830219963695995</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A670" s="1">
         <v>44933.958333333336</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>4.0255017994645996</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A671" s="1">
         <v>44933.96875</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>12.737673938777704</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A672" s="1">
         <v>44933.979166666664</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>15.010452456276898</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A673" s="1">
         <v>44933.989583333336</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>12.668260280053801</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A674" s="1">
         <v>44934</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>21.268590766210103</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A675" s="1">
         <v>44934.010416666664</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>18.085647520791603</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A676" s="1">
         <v>44934.020833333336</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>-2.9664837217673039</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A677" s="1">
         <v>44934.03125</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>9.0891493783811974</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A678" s="1">
         <v>44934.041666666664</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>9.3797034108643018</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A679" s="1">
         <v>44934.052083333336</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>-2.5897096323739035</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A680" s="1">
         <v>44934.0625</v>
       </c>
@@ -14522,7 +14522,7 @@
         <v>4.9693711151242024</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A681" s="1">
         <v>44934.072916666664</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>12.258137395631699</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A682" s="1">
         <v>44934.083333333336</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>30.833579613295697</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A683" s="1">
         <v>44934.09375</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>9.6318106968950019</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A684" s="1">
         <v>44934.104166666664</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>0.54692547248400025</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A685" s="1">
         <v>44934.114583333336</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>17.573333528335596</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A686" s="1">
         <v>44934.125</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>-2.9125270372534047</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A687" s="1">
         <v>44934.135416666664</v>
       </c>
@@ -14662,7 +14662,7 @@
         <v>-0.22354047519750075</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A688" s="1">
         <v>44934.145833333336</v>
       </c>
@@ -14682,7 +14682,7 @@
         <v>31.247311979273206</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A689" s="1">
         <v>44934.15625</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>6.5867322882896033</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A690" s="1">
         <v>44934.166666666664</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>35.069528572395797</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A691" s="1">
         <v>44934.177083333336</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>-3.6814733414967975</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A692" s="1">
         <v>44934.1875</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>11.282677304947697</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A693" s="1">
         <v>44934.197916666664</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>13.555279615054502</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A694" s="1">
         <v>44934.208333333336</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>-2.3381796549688012</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A695" s="1">
         <v>44934.21875</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>3.6790628472593028</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A696" s="1">
         <v>44934.229166666664</v>
       </c>
@@ -14842,7 +14842,7 @@
         <v>7.3745499269078003</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A697" s="1">
         <v>44934.239583333336</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>34.3327073473301</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A698" s="1">
         <v>44934.25</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>25.676888315344996</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A699" s="1">
         <v>44934.260416666664</v>
       </c>
@@ -14902,7 +14902,7 @@
         <v>21.859436875199002</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A700" s="1">
         <v>44934.270833333336</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>8.0799419852855969</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A701" s="1">
         <v>44934.28125</v>
       </c>
@@ -14942,7 +14942,7 @@
         <v>22.511142273109506</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A702" s="1">
         <v>44934.291666666664</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>18.126040669659808</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A703" s="1">
         <v>44934.302083333336</v>
       </c>
@@ -14982,7 +14982,7 @@
         <v>26.020211135453799</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A704" s="1">
         <v>44934.3125</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>6.515073489836503</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A705" s="1">
         <v>44934.322916666664</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>7.4390127942269011</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A706" s="1">
         <v>44934.333333333336</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>12.775832722777004</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A707" s="1">
         <v>44934.34375</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>15.574537528314899</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A708" s="1">
         <v>44934.354166666664</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>6.0393565927857011</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A709" s="1">
         <v>44934.364583333336</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>27.900697313661404</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A710" s="1">
         <v>44934.375</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>3.5711233687421995</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A711" s="1">
         <v>44934.385416666664</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>8.5069984036423989</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A712" s="1">
         <v>44934.395833333336</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>3.7891435732434999</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A713" s="1">
         <v>44934.40625</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>0.7096927955868999</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A714" s="1">
         <v>44934.416666666664</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>9.5294090317207036</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A715" s="1">
         <v>44934.427083333336</v>
       </c>
@@ -15222,7 +15222,7 @@
         <v>13.672532528287398</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A716" s="1">
         <v>44934.4375</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>32.011219130864902</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A717" s="1">
         <v>44934.447916666664</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>43.329697231358701</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A718" s="1">
         <v>44934.458333333336</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>45.792417314124897</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A719" s="1">
         <v>44934.46875</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>5.3638968152836988</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A720" s="1">
         <v>44934.479166666664</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>-3.2787274547219987</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A721" s="1">
         <v>44934.489583333336</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>49.505605060924708</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A722" s="1">
         <v>44934.5</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>2.6153839248578983</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A723" s="1">
         <v>44934.510416666664</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>5.7712501746522022</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A724" s="1">
         <v>44934.520833333336</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>26.958107073288602</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A725" s="1">
         <v>44934.53125</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>15.671001952936201</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A726" s="1">
         <v>44934.541666666664</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>32.308553779860802</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A727" s="1">
         <v>44934.552083333336</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>7.7583833323602018</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A728" s="1">
         <v>44934.5625</v>
       </c>
@@ -15482,7 +15482,7 @@
         <v>26.766691486601502</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A729" s="1">
         <v>44934.572916666664</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>4.3836555924110954</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A730" s="1">
         <v>44934.583333333336</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>-0.22078007271090172</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A731" s="1">
         <v>44934.59375</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>10.515657680325802</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A732" s="1">
         <v>44934.604166666664</v>
       </c>
@@ -15562,7 +15562,7 @@
         <v>20.462476105583903</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A733" s="1">
         <v>44934.614583333336</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>8.4745577664569041</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A734" s="1">
         <v>44934.625</v>
       </c>
@@ -15602,7 +15602,7 @@
         <v>4.8848952913673003</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A735" s="1">
         <v>44934.635416666664</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>23.915985495738802</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A736" s="1">
         <v>44934.645833333336</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>12.8552459650817</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A737" s="1">
         <v>44934.65625</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>-2.0137104336352003</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A738" s="1">
         <v>44934.666666666664</v>
       </c>
@@ -15682,7 +15682,7 @@
         <v>15.992887801303503</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A739" s="1">
         <v>44934.677083333336</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>5.440364253061901</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A740" s="1">
         <v>44934.6875</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>24.459142721126</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A741" s="1">
         <v>44934.697916666664</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>10.340936662911396</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A742" s="1">
         <v>44934.708333333336</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>4.1949347818732008</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A743" s="1">
         <v>44934.71875</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>3.0975462515700993</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A744" s="1">
         <v>44934.729166666664</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>-3.9187517880605043</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A745" s="1">
         <v>44934.739583333336</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>-2.2916572432448987</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A746" s="1">
         <v>44934.75</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>1.9865553258173065</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A747" s="1">
         <v>44934.760416666664</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>1.0078577923773011</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A748" s="1">
         <v>44934.770833333336</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>9.6719553488926024</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A749" s="1">
         <v>44934.78125</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>0.71194293360109917</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A750" s="1">
         <v>44934.791666666664</v>
       </c>
@@ -15922,7 +15922,7 @@
         <v>14.440490761283598</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A751" s="1">
         <v>44934.802083333336</v>
       </c>
@@ -15942,7 +15942,7 @@
         <v>19.789262164606498</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A752" s="1">
         <v>44934.8125</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>6.2828347378995986</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A753" s="1">
         <v>44934.822916666664</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>25.972443023384493</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A754" s="1">
         <v>44934.833333333336</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>21.608708664706292</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A755" s="1">
         <v>44934.84375</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>19.221202038223296</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A756" s="1">
         <v>44934.854166666664</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>8.496365161697998</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A757" s="1">
         <v>44934.864583333336</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>12.884256640153197</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A758" s="1">
         <v>44934.875</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>2.2607730038387004</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A759" s="1">
         <v>44934.885416666664</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>-0.99032440996639792</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A760" s="1">
         <v>44934.895833333336</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>25.379953206480899</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A761" s="1">
         <v>44934.90625</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>5.2771199638683974</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A762" s="1">
         <v>44934.916666666664</v>
       </c>
@@ -16162,7 +16162,7 @@
         <v>3.2673204425130002</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A763" s="1">
         <v>44934.927083333336</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>41.250199199003596</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A764" s="1">
         <v>44934.9375</v>
       </c>
@@ -16202,7 +16202,7 @@
         <v>44.823091596161802</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A765" s="1">
         <v>44934.947916666664</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>13.999393733738799</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A766" s="1">
         <v>44934.958333333336</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>6.1543083323290979</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A767" s="1">
         <v>44934.96875</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>11.114640431430001</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A768" s="1">
         <v>44934.979166666664</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>9.9002822229448029</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A769" s="1">
         <v>44934.989583333336</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>-0.10754944880109996</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A770" s="1">
         <v>44935</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>12.7441595226245</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A771" s="1">
         <v>44935.010416666664</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>29.632208293504604</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A772" s="1">
         <v>44935.020833333336</v>
       </c>
@@ -16362,7 +16362,7 @@
         <v>33.389846102716902</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A773" s="1">
         <v>44935.03125</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>-0.73200270388160149</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A774" s="1">
         <v>44935.041666666664</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>-0.40216955346889804</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A775" s="1">
         <v>44935.052083333336</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>15.997141566916298</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A776" s="1">
         <v>44935.0625</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>7.0424263685106006</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A777" s="1">
         <v>44935.072916666664</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>25.171547649459903</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A778" s="1">
         <v>44935.083333333336</v>
       </c>
@@ -16482,7 +16482,7 @@
         <v>15.174916138068902</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A779" s="1">
         <v>44935.09375</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>47.905209586669997</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A780" s="1">
         <v>44935.104166666664</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>1.503156452289403</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A781" s="1">
         <v>44935.114583333336</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>-1.5411408460300038</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A782" s="1">
         <v>44935.125</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>2.9735400671156995</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A783" s="1">
         <v>44935.135416666664</v>
       </c>
@@ -16582,7 +16582,7 @@
         <v>9.0504345842227991</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A784" s="1">
         <v>44935.145833333336</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>3.1582751808487988</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A785" s="1">
         <v>44935.15625</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>29.897357183595808</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A786" s="1">
         <v>44935.166666666664</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>-1.047868430849519E-2</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A787" s="1">
         <v>44935.177083333336</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>-1.6399420030603995</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A788" s="1">
         <v>44935.1875</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>-0.85256852049879939</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A789" s="1">
         <v>44935.197916666664</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>22.691951872050204</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A790" s="1">
         <v>44935.208333333336</v>
       </c>
@@ -16722,7 +16722,7 @@
         <v>6.8119520202256041</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A791" s="1">
         <v>44935.21875</v>
       </c>
@@ -16742,7 +16742,7 @@
         <v>8.0076073987962957</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A792" s="1">
         <v>44935.229166666664</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>11.759524728301198</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A793" s="1">
         <v>44935.239583333336</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>31.55540757478461</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A794" s="1">
         <v>44935.25</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>38.915018252031892</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A795" s="1">
         <v>44935.260416666664</v>
       </c>
@@ -16822,7 +16822,7 @@
         <v>3.8988936410769988</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A796" s="1">
         <v>44935.270833333336</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>29.100017499627604</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A797" s="1">
         <v>44935.28125</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>10.287341639750906</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A798" s="1">
         <v>44935.291666666664</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>5.835391873297624E-3</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A799" s="1">
         <v>44935.302083333336</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>26.1694295063227</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A800" s="1">
         <v>44935.3125</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>14.250753516132001</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A801" s="1">
         <v>44935.322916666664</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>19.020412098752097</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A802" s="1">
         <v>44935.333333333336</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>8.8870867914114022</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A803" s="1">
         <v>44935.34375</v>
       </c>
@@ -16982,7 +16982,7 @@
         <v>27.988211975536892</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A804" s="1">
         <v>44935.354166666664</v>
       </c>
@@ -17002,7 +17002,7 @@
         <v>3.1018089883837998</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A805" s="1">
         <v>44935.364583333336</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>21.722278155140394</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A806" s="1">
         <v>44935.375</v>
       </c>
@@ -17042,7 +17042,7 @@
         <v>3.9248505458153993</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A807" s="1">
         <v>44935.385416666664</v>
       </c>
@@ -17062,7 +17062,7 @@
         <v>20.144072056520002</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A808" s="1">
         <v>44935.395833333336</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>17.4138830283418</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A809" s="1">
         <v>44935.40625</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>5.9144255131310004</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A810" s="1">
         <v>44935.416666666664</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>1.5904725162184974</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A811" s="1">
         <v>44935.427083333336</v>
       </c>
@@ -17142,7 +17142,7 @@
         <v>20.207877045188404</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A812" s="1">
         <v>44935.4375</v>
       </c>
@@ -17162,7 +17162,7 @@
         <v>22.186774076712702</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A813" s="1">
         <v>44935.447916666664</v>
       </c>
@@ -17182,7 +17182,7 @@
         <v>34.233113075697908</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A814" s="1">
         <v>44935.458333333336</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>11.379969336957103</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A815" s="1">
         <v>44935.46875</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>5.5001222857391028</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A816" s="1">
         <v>44935.479166666664</v>
       </c>
@@ -17242,7 +17242,7 @@
         <v>22.9131384731362</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A817" s="1">
         <v>44935.489583333336</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>24.6095833949121</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A818" s="1">
         <v>44935.5</v>
       </c>
@@ -17282,7 +17282,7 @@
         <v>-1.1578930433620993</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A819" s="1">
         <v>44935.510416666664</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>11.876773958715106</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A820" s="1">
         <v>44935.520833333336</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>6.3432935699638993</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A821" s="1">
         <v>44935.53125</v>
       </c>
@@ -17342,7 +17342,7 @@
         <v>-1.3073261259462008</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A822" s="1">
         <v>44935.541666666664</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>34.270966541033104</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A823" s="1">
         <v>44935.552083333336</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>22.765381847736101</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A824" s="1">
         <v>44935.5625</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>25.795793968647502</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A825" s="1">
         <v>44935.572916666664</v>
       </c>
@@ -17422,7 +17422,7 @@
         <v>46.156350010954604</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A826" s="1">
         <v>44935.583333333336</v>
       </c>
@@ -17442,7 +17442,7 @@
         <v>3.3435867129831003</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A827" s="1">
         <v>44935.59375</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>7.3081350981229001</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A828" s="1">
         <v>44935.604166666664</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>-2.0277811474107992</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A829" s="1">
         <v>44935.614583333336</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>6.9049647765321005</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A830" s="1">
         <v>44935.625</v>
       </c>
@@ -17522,7 +17522,7 @@
         <v>-2.1714405254657976</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A831" s="1">
         <v>44935.635416666664</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>12.353118931014503</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A832" s="1">
         <v>44935.645833333336</v>
       </c>
@@ -17562,7 +17562,7 @@
         <v>21.520786595921098</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A833" s="1">
         <v>44935.65625</v>
       </c>
@@ -17582,7 +17582,7 @@
         <v>17.269911586257098</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A834" s="1">
         <v>44935.666666666664</v>
       </c>
@@ -17602,7 +17602,7 @@
         <v>10.397938368296003</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A835" s="1">
         <v>44935.677083333336</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>-1.6478744812668982</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A836" s="1">
         <v>44935.6875</v>
       </c>
@@ -17642,7 +17642,7 @@
         <v>20.076562463039807</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A837" s="1">
         <v>44935.697916666664</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>13.808735524867004</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A838" s="1">
         <v>44935.708333333336</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>14.536238425591101</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A839" s="1">
         <v>44935.71875</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>33.511540784938305</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A840" s="1">
         <v>44935.729166666664</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>-0.51195070973139423</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A841" s="1">
         <v>44935.739583333336</v>
       </c>
@@ -17742,7 +17742,7 @@
         <v>5.5910980381391013</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A842" s="1">
         <v>44935.75</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>49.301808672648797</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A843" s="1">
         <v>44935.760416666664</v>
       </c>
@@ -17782,7 +17782,7 @@
         <v>36.577512310409304</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A844" s="1">
         <v>44935.770833333336</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>4.4973790211397002</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A845" s="1">
         <v>44935.78125</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>2.0468869222977002</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A846" s="1">
         <v>44935.791666666664</v>
       </c>
@@ -17842,7 +17842,7 @@
         <v>3.8716172758031</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A847" s="1">
         <v>44935.802083333336</v>
       </c>
@@ -17862,7 +17862,7 @@
         <v>24.704032275238994</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A848" s="1">
         <v>44935.8125</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>6.6118059328053995</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A849" s="1">
         <v>44935.822916666664</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>20.481326396326303</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A850" s="1">
         <v>44935.833333333336</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>21.548281967930702</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A851" s="1">
         <v>44935.84375</v>
       </c>
@@ -17942,7 +17942,7 @@
         <v>5.7513451597998966</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A852" s="1">
         <v>44935.854166666664</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>6.4317359180242022</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A853" s="1">
         <v>44935.864583333336</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>45.830367850260394</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A854" s="1">
         <v>44935.875</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>1.8696934045121001</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A855" s="1">
         <v>44935.885416666664</v>
       </c>
@@ -18022,7 +18022,7 @@
         <v>4.8609286392103996</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A856" s="1">
         <v>44935.895833333336</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>-1.0302722858759026</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A857" s="1">
         <v>44935.90625</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>3.0710167569139983</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A858" s="1">
         <v>44935.916666666664</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>-3.5271088241454009</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A859" s="1">
         <v>44935.927083333336</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>10.009793108211198</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A860" s="1">
         <v>44935.9375</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>18.582784130976002</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A861" s="1">
         <v>44935.947916666664</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>12.928723720602704</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A862" s="1">
         <v>44935.958333333336</v>
       </c>
@@ -18162,7 +18162,7 @@
         <v>2.9902160820779002</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A863" s="1">
         <v>44935.96875</v>
       </c>
@@ -18182,7 +18182,7 @@
         <v>7.1696575563755012</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A864" s="1">
         <v>44935.979166666664</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>-4.3500518138285003</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A865" s="1">
         <v>44935.989583333336</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>7.5686369793439994</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A866" s="1">
         <v>44936</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>11.226383031286503</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A867" s="1">
         <v>44936.010416666664</v>
       </c>
@@ -18262,7 +18262,7 @@
         <v>12.122283164428602</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A868" s="1">
         <v>44936.020833333336</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>2.4449163581097011</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A869" s="1">
         <v>44936.03125</v>
       </c>
@@ -18302,7 +18302,7 @@
         <v>10.946104282662702</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A870" s="1">
         <v>44936.041666666664</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>26.8784973795985</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A871" s="1">
         <v>44936.052083333336</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>19.558641137508197</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A872" s="1">
         <v>44936.0625</v>
       </c>
@@ -18362,7 +18362,7 @@
         <v>1.8740645990043987</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A873" s="1">
         <v>44936.072916666664</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>9.0027090307823983</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A874" s="1">
         <v>44936.083333333336</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>23.093963924237293</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A875" s="1">
         <v>44936.09375</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>31.624557372020796</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A876" s="1">
         <v>44936.104166666664</v>
       </c>
@@ -18442,7 +18442,7 @@
         <v>-0.60346305552539903</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A877" s="1">
         <v>44936.114583333336</v>
       </c>
@@ -18462,7 +18462,7 @@
         <v>2.7896854325014999</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A878" s="1">
         <v>44936.125</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>5.3771310901483034</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A879" s="1">
         <v>44936.135416666664</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>2.2155057783320977</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A880" s="1">
         <v>44936.145833333336</v>
       </c>
@@ -18522,7 +18522,7 @@
         <v>22.665593623220893</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A881" s="1">
         <v>44936.15625</v>
       </c>
@@ -18542,7 +18542,7 @@
         <v>12.355656390366203</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A882" s="1">
         <v>44936.166666666664</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>1.6298485220634991</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A883" s="1">
         <v>44936.177083333336</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>30.306902647518498</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A884" s="1">
         <v>44936.1875</v>
       </c>
@@ -18602,7 +18602,7 @@
         <v>20.602560896649706</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A885" s="1">
         <v>44936.197916666664</v>
       </c>
@@ -18622,7 +18622,7 @@
         <v>25.825662870709198</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A886" s="1">
         <v>44936.208333333336</v>
       </c>
@@ -18642,7 +18642,7 @@
         <v>-1.1011549950371986</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A887" s="1">
         <v>44936.21875</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>3.3472412272971006</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A888" s="1">
         <v>44936.229166666664</v>
       </c>
@@ -18682,7 +18682,7 @@
         <v>35.528732434829294</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A889" s="1">
         <v>44936.239583333336</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>13.142020272807898</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A890" s="1">
         <v>44936.25</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>0.74279796373579998</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A891" s="1">
         <v>44936.260416666664</v>
       </c>
@@ -18742,7 +18742,7 @@
         <v>13.422975802970903</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A892" s="1">
         <v>44936.270833333336</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>5.0845596250659</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A893" s="1">
         <v>44936.28125</v>
       </c>
@@ -18782,7 +18782,7 @@
         <v>25.194304035649708</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A894" s="1">
         <v>44936.291666666664</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>12.586535053772504</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A895" s="1">
         <v>44936.302083333336</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>11.0180170976206</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A896" s="1">
         <v>44936.3125</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>14.4943683846775</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A897" s="1">
         <v>44936.322916666664</v>
       </c>
@@ -18862,7 +18862,7 @@
         <v>2.9434547824215009</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A898" s="1">
         <v>44936.333333333336</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>34.759460669546897</v>
       </c>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A899" s="1">
         <v>44936.34375</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>0.89659621146639523</v>
       </c>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A900" s="1">
         <v>44936.354166666664</v>
       </c>
@@ -18922,7 +18922,7 @@
         <v>22.281203120411092</v>
       </c>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A901" s="1">
         <v>44936.364583333336</v>
       </c>
@@ -18942,7 +18942,7 @@
         <v>17.461446282652403</v>
       </c>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A902" s="1">
         <v>44936.375</v>
       </c>
@@ -18962,7 +18962,7 @@
         <v>1.4225644646808959</v>
       </c>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A903" s="1">
         <v>44936.385416666664</v>
       </c>
@@ -18982,7 +18982,7 @@
         <v>43.274149185709895</v>
       </c>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A904" s="1">
         <v>44936.395833333336</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>9.8191567774326991</v>
       </c>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A905" s="1">
         <v>44936.40625</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>8.2316203664527947</v>
       </c>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A906" s="1">
         <v>44936.416666666664</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>10.292886119192801</v>
       </c>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A907" s="1">
         <v>44936.427083333336</v>
       </c>
@@ -19062,7 +19062,7 @@
         <v>14.784658993992196</v>
       </c>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A908" s="1">
         <v>44936.4375</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>37.902857176933196</v>
       </c>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A909" s="1">
         <v>44936.447916666664</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>31.878969297534404</v>
       </c>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A910" s="1">
         <v>44936.458333333336</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>0.76125437012040109</v>
       </c>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A911" s="1">
         <v>44936.46875</v>
       </c>
@@ -19142,7 +19142,7 @@
         <v>2.9388018723239995</v>
       </c>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A912" s="1">
         <v>44936.479166666664</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>3.6273725380704995</v>
       </c>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A913" s="1">
         <v>44936.489583333336</v>
       </c>
@@ -19182,7 +19182,7 @@
         <v>-1.1850236835743999</v>
       </c>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A914" s="1">
         <v>44936.5</v>
       </c>
@@ -19202,7 +19202,7 @@
         <v>15.395801769693605</v>
       </c>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A915" s="1">
         <v>44936.510416666664</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>16.760488119963</v>
       </c>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A916" s="1">
         <v>44936.520833333336</v>
       </c>
@@ -19242,7 +19242,7 @@
         <v>-2.6834380195253011</v>
       </c>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A917" s="1">
         <v>44936.53125</v>
       </c>
@@ -19262,7 +19262,7 @@
         <v>23.884940162428506</v>
       </c>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A918" s="1">
         <v>44936.541666666664</v>
       </c>
@@ -19282,7 +19282,7 @@
         <v>3.5282370605334989</v>
       </c>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A919" s="1">
         <v>44936.552083333336</v>
       </c>
@@ -19302,7 +19302,7 @@
         <v>1.6777254662575984</v>
       </c>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A920" s="1">
         <v>44936.5625</v>
       </c>
@@ -19322,7 +19322,7 @@
         <v>38.089005761791697</v>
       </c>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A921" s="1">
         <v>44936.572916666664</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>9.5040501663706003</v>
       </c>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A922" s="1">
         <v>44936.583333333336</v>
       </c>
@@ -19362,7 +19362,7 @@
         <v>-1.982335688699699</v>
       </c>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A923" s="1">
         <v>44936.59375</v>
       </c>
@@ -19382,7 +19382,7 @@
         <v>13.175562925788796</v>
       </c>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A924" s="1">
         <v>44936.604166666664</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>-0.17358138258289912</v>
       </c>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A925" s="1">
         <v>44936.614583333336</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>29.306873934663606</v>
       </c>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A926" s="1">
         <v>44936.625</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>-0.55861606437579781</v>
       </c>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A927" s="1">
         <v>44936.635416666664</v>
       </c>
@@ -19462,7 +19462,7 @@
         <v>10.318366764544999</v>
       </c>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A928" s="1">
         <v>44936.645833333336</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>1.2720682820628006</v>
       </c>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A929" s="1">
         <v>44936.65625</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>4.761384824738899</v>
       </c>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A930" s="1">
         <v>44936.666666666664</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>2.5885999952229</v>
       </c>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A931" s="1">
         <v>44936.677083333336</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>11.778531310923</v>
       </c>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A932" s="1">
         <v>44936.6875</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>14.978065418110006</v>
       </c>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A933" s="1">
         <v>44936.697916666664</v>
       </c>
@@ -19582,7 +19582,7 @@
         <v>7.9956569533816975</v>
       </c>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A934" s="1">
         <v>44936.708333333336</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>16.239685384768293</v>
       </c>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A935" s="1">
         <v>44936.71875</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>15.761794173931605</v>
       </c>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A936" s="1">
         <v>44936.729166666664</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>2.864305737955199</v>
       </c>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A937" s="1">
         <v>44936.739583333336</v>
       </c>
@@ -19662,7 +19662,7 @@
         <v>-2.402540213863201</v>
       </c>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A938" s="1">
         <v>44936.75</v>
       </c>
@@ -19682,7 +19682,7 @@
         <v>6.3401406082453065</v>
       </c>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A939" s="1">
         <v>44936.760416666664</v>
       </c>
@@ -19702,7 +19702,7 @@
         <v>14.229942671970896</v>
       </c>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A940" s="1">
         <v>44936.770833333336</v>
       </c>
@@ -19722,7 +19722,7 @@
         <v>17.250047962036902</v>
       </c>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A941" s="1">
         <v>44936.78125</v>
       </c>
@@ -19742,7 +19742,7 @@
         <v>-1.8389454102068044</v>
       </c>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A942" s="1">
         <v>44936.791666666664</v>
       </c>
@@ -19762,7 +19762,7 @@
         <v>5.9896237434952013</v>
       </c>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A943" s="1">
         <v>44936.802083333336</v>
       </c>
@@ -19782,7 +19782,7 @@
         <v>3.8097870259048001</v>
       </c>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A944" s="1">
         <v>44936.8125</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>3.2542262379496023</v>
       </c>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A945" s="1">
         <v>44936.822916666664</v>
       </c>
@@ -19822,7 +19822,7 @@
         <v>37.054803756576099</v>
       </c>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A946" s="1">
         <v>44936.833333333336</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>4.7634445530293004</v>
       </c>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A947" s="1">
         <v>44936.84375</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>21.054340741481301</v>
       </c>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A948" s="1">
         <v>44936.854166666664</v>
       </c>
@@ -19882,7 +19882,7 @@
         <v>13.159404470710296</v>
       </c>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A949" s="1">
         <v>44936.864583333336</v>
       </c>
@@ -19902,7 +19902,7 @@
         <v>18.226854638352002</v>
       </c>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A950" s="1">
         <v>44936.875</v>
       </c>
@@ -19922,7 +19922,7 @@
         <v>4.6105944068381959</v>
       </c>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A951" s="1">
         <v>44936.885416666664</v>
       </c>
@@ -19942,7 +19942,7 @@
         <v>15.782870455108807</v>
       </c>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A952" s="1">
         <v>44936.895833333336</v>
       </c>
@@ -19962,7 +19962,7 @@
         <v>5.4928059774442985</v>
       </c>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A953" s="1">
         <v>44936.90625</v>
       </c>
@@ -19982,7 +19982,7 @@
         <v>4.4155805007580042</v>
       </c>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A954" s="1">
         <v>44936.916666666664</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>1.2777927251496983</v>
       </c>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A955" s="1">
         <v>44936.927083333336</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>2.8903750049216015</v>
       </c>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A956" s="1">
         <v>44936.9375</v>
       </c>
@@ -20042,7 +20042,7 @@
         <v>2.1063598626094997</v>
       </c>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A957" s="1">
         <v>44936.947916666664</v>
       </c>
@@ -20062,7 +20062,7 @@
         <v>16.886128177065096</v>
       </c>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A958" s="1">
         <v>44936.958333333336</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>8.2274891355463993</v>
       </c>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A959" s="1">
         <v>44936.96875</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>-2.259309095914297</v>
       </c>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A960" s="1">
         <v>44936.979166666664</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>2.2715158093086032</v>
       </c>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A961" s="1">
         <v>44936.989583333336</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>-3.677685766716202</v>
       </c>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A962" s="1">
         <v>44937</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>30.70710428810839</v>
       </c>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A963" s="1">
         <v>44937.010416666664</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>43.776564599270195</v>
       </c>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A964" s="1">
         <v>44937.020833333336</v>
       </c>
@@ -20202,7 +20202,7 @@
         <v>29.127258408638006</v>
       </c>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A965" s="1">
         <v>44937.03125</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>13.842188203526</v>
       </c>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A966" s="1">
         <v>44937.041666666664</v>
       </c>
@@ -20242,7 +20242,7 @@
         <v>29.701938521991103</v>
       </c>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A967" s="1">
         <v>44937.052083333336</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>17.382395228804491</v>
       </c>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A968" s="1">
         <v>44937.0625</v>
       </c>
@@ -20282,7 +20282,7 @@
         <v>21.023649235667094</v>
       </c>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A969" s="1">
         <v>44937.072916666664</v>
       </c>
@@ -20302,7 +20302,7 @@
         <v>4.9359652150891975</v>
       </c>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A970" s="1">
         <v>44937.083333333336</v>
       </c>
@@ -20322,7 +20322,7 @@
         <v>6.1267193613006974</v>
       </c>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A971" s="1">
         <v>44937.09375</v>
       </c>
@@ -20342,7 +20342,7 @@
         <v>13.4366950340033</v>
       </c>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A972" s="1">
         <v>44937.104166666664</v>
       </c>
@@ -20362,7 +20362,7 @@
         <v>11.216965877620702</v>
       </c>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A973" s="1">
         <v>44937.114583333336</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>11.689900891614499</v>
       </c>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A974" s="1">
         <v>44937.125</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>2.0925061408615999</v>
       </c>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A975" s="1">
         <v>44937.135416666664</v>
       </c>
@@ -20422,7 +20422,7 @@
         <v>-2.8059006420756987</v>
       </c>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A976" s="1">
         <v>44937.145833333336</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>8.3654849510960005</v>
       </c>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A977" s="1">
         <v>44937.15625</v>
       </c>
@@ -20462,7 +20462,7 @@
         <v>2.5476318791952011</v>
       </c>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A978" s="1">
         <v>44937.166666666664</v>
       </c>
@@ -20482,7 +20482,7 @@
         <v>10.404091578077196</v>
       </c>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A979" s="1">
         <v>44937.177083333336</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>-3.6648666350433032</v>
       </c>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A980" s="1">
         <v>44937.1875</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>0.68200347914730131</v>
       </c>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A981" s="1">
         <v>44937.197916666664</v>
       </c>
@@ -20542,7 +20542,7 @@
         <v>17.309065016933893</v>
       </c>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A982" s="1">
         <v>44937.208333333336</v>
       </c>
@@ -20562,7 +20562,7 @@
         <v>25.574275424092804</v>
       </c>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A983" s="1">
         <v>44937.21875</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>11.547007507130303</v>
       </c>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A984" s="1">
         <v>44937.229166666664</v>
       </c>
@@ -20602,7 +20602,7 @@
         <v>3.0811738326713005</v>
       </c>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A985" s="1">
         <v>44937.239583333336</v>
       </c>
@@ -20622,7 +20622,7 @@
         <v>-1.1106053087265</v>
       </c>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A986" s="1">
         <v>44937.25</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>19.732585599164899</v>
       </c>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A987" s="1">
         <v>44937.260416666664</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>13.801868334827503</v>
       </c>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A988" s="1">
         <v>44937.270833333336</v>
       </c>
@@ -20682,7 +20682,7 @@
         <v>25.493003276832802</v>
       </c>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A989" s="1">
         <v>44937.28125</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>-0.21386416758369897</v>
       </c>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A990" s="1">
         <v>44937.291666666664</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>4.8791119783255041</v>
       </c>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A991" s="1">
         <v>44937.302083333336</v>
       </c>
@@ -20742,7 +20742,7 @@
         <v>29.812714427388805</v>
       </c>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A992" s="1">
         <v>44937.3125</v>
       </c>
@@ -20762,7 +20762,7 @@
         <v>11.548694482467901</v>
       </c>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A993" s="1">
         <v>44937.322916666664</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>-0.51010016994690233</v>
       </c>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A994" s="1">
         <v>44937.333333333336</v>
       </c>
@@ -20802,7 +20802,7 @@
         <v>-0.23321506054399954</v>
       </c>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A995" s="1">
         <v>44937.34375</v>
       </c>
@@ -20822,7 +20822,7 @@
         <v>3.0300118497988038</v>
       </c>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A996" s="1">
         <v>44937.354166666664</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>-1.2041395765928016</v>
       </c>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A997" s="1">
         <v>44937.364583333336</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>16.210040627291797</v>
       </c>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A998" s="1">
         <v>44937.375</v>
       </c>
@@ -20882,7 +20882,7 @@
         <v>14.691293846537405</v>
       </c>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A999" s="1">
         <v>44937.385416666664</v>
       </c>
@@ -20902,7 +20902,7 @@
         <v>16.5009151772922</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1000" s="1">
         <v>44937.395833333336</v>
       </c>
@@ -20922,7 +20922,7 @@
         <v>17.171445181786005</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1001" s="1">
         <v>44937.40625</v>
       </c>
